--- a/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5706,7 +5706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6842,6 +6842,12 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -13371,8 +13377,12 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="E16" s="196"/>
+      <c r="C16" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G16" s="193" t="n">
         <f>((E16-C16)*24)</f>
         <v>0.0</v>
@@ -13382,8 +13392,12 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G17" s="193" t="n">
         <f>((E17-C17)*24)</f>
         <v>0.0</v>
@@ -13393,8 +13407,12 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="E18" s="196"/>
+      <c r="C18" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G18" s="193" t="n">
         <f>((E18-C18)*24)</f>
         <v>0.0</v>
@@ -13404,8 +13422,12 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E19" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G19" s="193" t="n">
         <f>((E19-C19)*24)</f>
         <v>0.0</v>
@@ -13435,8 +13457,12 @@
       <c r="B22" s="195" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="E22" s="196"/>
+      <c r="C22" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G22" s="193" t="n">
         <f>((E22-C22)*24)</f>
         <v>0.0</v>
@@ -13446,8 +13472,12 @@
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="E23" s="196"/>
+      <c r="C23" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G23" s="193" t="n">
         <f>((E23-C23)*24)</f>
         <v>0.0</v>
@@ -13457,8 +13487,12 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E24" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G24" s="193" t="n">
         <f>((E24-C24)*24)</f>
         <v>0.0</v>
@@ -13468,8 +13502,12 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G25" s="193" t="n">
         <f>((E25-C25)*24)</f>
         <v>0.0</v>
@@ -13479,8 +13517,12 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G26" s="193" t="n">
         <f>((E26-C26)*24)</f>
         <v>0.0</v>
@@ -13510,8 +13552,12 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="E29" s="196"/>
+      <c r="C29" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G29" s="193" t="n">
         <f>((E29-C29)*24)</f>
         <v>0.0</v>
@@ -13521,8 +13567,12 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="E30" s="196"/>
+      <c r="C30" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E30" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G30" s="193" t="n">
         <f>((E30-C30)*24)</f>
         <v>0.0</v>
@@ -13532,8 +13582,12 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="C31" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E31" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G31" s="193" t="n">
         <f>((E31-C31)*24)</f>
         <v>0.0</v>
@@ -13543,8 +13597,12 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="E32" s="196"/>
+      <c r="C32" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E32" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)</f>
         <v>0.0</v>
@@ -13554,8 +13612,12 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="C33" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E33" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G33" s="193" t="n">
         <f>((E33-C33)*24)</f>
         <v>0.0</v>
@@ -13585,8 +13647,12 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="E36" s="196"/>
+      <c r="C36" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G36" s="193" t="n">
         <f>((E36-C36)*24)</f>
         <v>0.0</v>
@@ -13596,8 +13662,12 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="E37" s="196"/>
+      <c r="C37" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G37" s="193" t="n">
         <f>((E37-C37)*24)</f>
         <v>0.0</v>
@@ -13607,8 +13677,12 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="E38" s="196"/>
+      <c r="C38" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G38" s="193" t="n">
         <f>((E38-C38)*24)</f>
         <v>0.0</v>
@@ -13618,8 +13692,12 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="E39" s="196"/>
+      <c r="C39" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G39" s="193" t="n">
         <f>((E39-C39)*24)</f>
         <v>0.0</v>
@@ -13629,8 +13707,12 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="C40" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G40" s="193" t="n">
         <f>((E40-C40)*24)</f>
         <v>0.0</v>
@@ -13660,19 +13742,26 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="G43" s="193" t="n">
-        <f>((E43-C43)*24)</f>
-        <v>0.0</v>
+      <c r="C43" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="193" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G44" s="193" t="n">
         <f>((E44-C44)*24)</f>
         <v>0.0</v>
@@ -13682,8 +13771,12 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="196"/>
-      <c r="E45" s="196"/>
+      <c r="C45" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E45" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G45" s="193" t="n">
         <f>((E45-C45)*24)</f>
         <v>0.0</v>
@@ -13693,8 +13786,12 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="196"/>
-      <c r="E46" s="196"/>
+      <c r="C46" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="495" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G46" s="193" t="n">
         <f>((E46-C46)*24)</f>
         <v>0.0</v>
@@ -13992,8 +14089,12 @@
       <c r="B16" s="228" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="E16" s="229"/>
+      <c r="C16" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G16" s="226" t="n">
         <f>((E16-C16)*24)</f>
         <v>0.0</v>
@@ -14023,8 +14124,12 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="E19" s="229"/>
+      <c r="C19" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G19" s="226" t="n">
         <f>((E19-C19)*24)</f>
         <v>0.0</v>
@@ -14034,8 +14139,12 @@
       <c r="B20" s="228" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="E20" s="229"/>
+      <c r="C20" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E20" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G20" s="226" t="n">
         <f>((E20-C20)*24)</f>
         <v>0.0</v>
@@ -14045,8 +14154,12 @@
       <c r="B21" s="228" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="E21" s="229"/>
+      <c r="C21" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E21" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G21" s="226" t="n">
         <f>((E21-C21)*24)</f>
         <v>0.0</v>
@@ -14056,8 +14169,12 @@
       <c r="B22" s="228" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="E22" s="229"/>
+      <c r="C22" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G22" s="226" t="n">
         <f>((E22-C22)*24)</f>
         <v>0.0</v>
@@ -14067,8 +14184,12 @@
       <c r="B23" s="228" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="E23" s="229"/>
+      <c r="C23" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G23" s="226" t="n">
         <f>((E23-C23)*24)</f>
         <v>0.0</v>
@@ -14098,44 +14219,56 @@
       <c r="B26" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="E26" s="229"/>
-      <c r="G26" s="226" t="n">
-        <f>((E26-C26)*24)</f>
-        <v>0.0</v>
+      <c r="C26" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="226" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
       <c r="B27" s="228" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="G27" s="226" t="n">
-        <f>((E27-C27)*24)</f>
-        <v>0.0</v>
+      <c r="C27" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="226" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
       <c r="B28" s="228" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="G28" s="226" t="n">
-        <f>((E28-C28)*24)</f>
-        <v>0.0</v>
+      <c r="C28" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="226" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
       <c r="B29" s="228" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="229"/>
-      <c r="E29" s="229"/>
-      <c r="G29" s="226" t="n">
-        <f>((E29-C29)*24)</f>
-        <v>0.0</v>
+      <c r="C29" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="226" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -14182,8 +14315,12 @@
       <c r="B34" s="228" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="E34" s="229"/>
+      <c r="C34" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E34" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G34" s="226" t="n">
         <f>((E34-C34)*24)</f>
         <v>0.0</v>
@@ -14193,8 +14330,12 @@
       <c r="B35" s="228" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="229"/>
-      <c r="E35" s="229"/>
+      <c r="C35" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E35" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G35" s="226" t="n">
         <f>((E35-C35)*24)</f>
         <v>0.0</v>
@@ -14204,8 +14345,12 @@
       <c r="B36" s="228" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="229"/>
-      <c r="E36" s="229"/>
+      <c r="C36" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G36" s="226" t="n">
         <f>((E36-C36)*24)</f>
         <v>0.0</v>
@@ -14215,8 +14360,12 @@
       <c r="B37" s="228" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="229"/>
-      <c r="E37" s="229"/>
+      <c r="C37" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G37" s="226" t="n">
         <f>((E37-C37)*24)</f>
         <v>0.0</v>
@@ -14246,8 +14395,12 @@
       <c r="B40" s="228" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="229"/>
-      <c r="E40" s="229"/>
+      <c r="C40" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G40" s="226" t="n">
         <f>((E40-C40)*24)</f>
         <v>0.0</v>
@@ -14257,8 +14410,12 @@
       <c r="B41" s="228" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="229"/>
-      <c r="E41" s="229"/>
+      <c r="C41" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G41" s="226" t="n">
         <f>((E41-C41)*24)</f>
         <v>0.0</v>
@@ -14268,8 +14425,12 @@
       <c r="B42" s="228" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="229"/>
-      <c r="E42" s="229"/>
+      <c r="C42" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E42" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G42" s="226" t="n">
         <f>((E42-C42)*24)</f>
         <v>0.0</v>
@@ -14279,8 +14440,12 @@
       <c r="B43" s="228" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="229"/>
-      <c r="E43" s="229"/>
+      <c r="C43" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G43" s="226" t="n">
         <f>((E43-C43)*24)</f>
         <v>0.0</v>
@@ -14290,8 +14455,12 @@
       <c r="B44" s="228" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="229"/>
-      <c r="E44" s="229"/>
+      <c r="C44" s="496" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="496" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G44" s="226" t="n">
         <f>((E44-C44)*24)</f>
         <v>0.0</v>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
@@ -12492,6 +12492,7 @@
       <c r="H62" s="139"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13181,6 +13182,7 @@
       <c r="H62" s="173"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13893,6 +13895,7 @@
       <c r="H62" s="206"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14577,6 +14580,7 @@
       <c r="H62" s="239"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1602,6 +1607,12 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2210,20 +2221,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5164,24 +5176,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6657,24 +6670,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8157,24 +8171,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9649,24 +9664,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11148,24 +11164,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12748,24 +12765,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14334,24 +14352,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15943,24 +15962,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17524,24 +17544,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19041,24 +19062,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20537,24 +20559,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20992,11 +21015,14 @@
       <c r="B44" s="122">
         <v>29.0</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="G44" s="106">
-        <f>IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -22036,24 +22062,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22193,55 +22220,70 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="G16" s="106">
-        <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="122">
         <v>2.0</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="G17" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="122">
         <v>3.0</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="G18" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="G19" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -22268,55 +22310,70 @@
       <c r="B23" s="122">
         <v>8.0</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="G23" s="106">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="122">
         <v>9.0</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="G24" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="122">
         <v>10.0</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="G25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="122">
         <v>11.0</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="G26" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="122">
         <v>12.0</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22353,44 +22410,56 @@
       <c r="B31" s="122">
         <v>16.0</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="G31" s="106">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="122">
         <v>17.0</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="G32" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="122">
         <v>18.0</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="G33" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="122">
         <v>19.0</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="G34" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/María Begoña Hernández.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="116">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1426,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,6 +1711,15 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5508,8 +5517,12 @@
       <c r="B16" s="103">
         <v>1</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="C16" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G16" s="88">
         <f t="shared" ref="G16:G17" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -5519,8 +5532,12 @@
       <c r="B17" s="103">
         <v>2</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="C17" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G17" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5550,8 +5567,12 @@
       <c r="B20" s="103">
         <v>5</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="C20" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E20" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G20" s="88">
         <f t="shared" ref="G20:G24" si="1">IF((E20-C20)*24&lt;=4,(E20-C20)*24,(E20-C20)*24-1)</f>
         <v>0</v>
@@ -5561,8 +5582,12 @@
       <c r="B21" s="103">
         <v>6</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="C21" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E21" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G21" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5572,8 +5597,12 @@
       <c r="B22" s="103">
         <v>7</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G22" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5583,8 +5612,12 @@
       <c r="B23" s="103">
         <v>8</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G23" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5594,8 +5627,12 @@
       <c r="B24" s="103">
         <v>9</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E24" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G24" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5625,8 +5662,12 @@
       <c r="B27" s="103">
         <v>12</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E27" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G27" s="88">
         <f t="shared" ref="G27:G31" si="2">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5636,8 +5677,12 @@
       <c r="B28" s="103">
         <v>13</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E28" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G28" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5647,8 +5692,12 @@
       <c r="B29" s="103">
         <v>14</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G29" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5658,8 +5707,12 @@
       <c r="B30" s="103">
         <v>15</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="C30" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E30" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G30" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5669,8 +5722,12 @@
       <c r="B31" s="103">
         <v>16</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="C31" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E31" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G31" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5700,8 +5757,12 @@
       <c r="B34" s="103">
         <v>19</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="E34" s="92"/>
+      <c r="C34" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E34" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G34" s="88">
         <f t="shared" ref="G34:G38" si="3">IF((E34-C34)*24&lt;=4,(E34-C34)*24,(E34-C34)*24-1)</f>
         <v>0</v>
@@ -5711,8 +5772,12 @@
       <c r="B35" s="103">
         <v>20</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="E35" s="92"/>
+      <c r="C35" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E35" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G35" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5722,8 +5787,12 @@
       <c r="B36" s="103">
         <v>21</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="C36" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G36" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5733,8 +5802,12 @@
       <c r="B37" s="103">
         <v>22</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G37" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5744,8 +5817,12 @@
       <c r="B38" s="103">
         <v>23</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="C38" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="127" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G38" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23281,8 +23358,12 @@
       <c r="B37" s="103">
         <v>22</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G37" s="88">
         <f t="shared" ref="G37:G41" si="0">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
         <v>0</v>
@@ -23292,8 +23373,12 @@
       <c r="B38" s="103">
         <v>23</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="C38" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G38" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23303,8 +23388,12 @@
       <c r="B39" s="103">
         <v>24</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G39" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23314,8 +23403,12 @@
       <c r="B40" s="103">
         <v>25</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="C40" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G40" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23325,8 +23418,12 @@
       <c r="B41" s="103">
         <v>26</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G41" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23356,8 +23453,12 @@
       <c r="B44" s="103">
         <v>29</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="E44" s="92"/>
+      <c r="C44" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G44" s="88">
         <f t="shared" ref="G44:G46" si="1">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
         <v>0</v>
@@ -23367,8 +23468,12 @@
       <c r="B45" s="103">
         <v>30</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="C45" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E45" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G45" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -23378,8 +23483,12 @@
       <c r="B46" s="103">
         <v>31</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="126" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="126" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G46" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -24419,6 +24528,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
